--- a/artfynd/A 38314-2020.xlsx
+++ b/artfynd/A 38314-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112000857</v>
+        <v>112000891</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>766906.7664567139</v>
+        <v>766829.4773850774</v>
       </c>
       <c r="R2" t="n">
-        <v>7097935.756640848</v>
+        <v>7097974.697624703</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112000795</v>
+        <v>112003034</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>766897.9248347329</v>
+        <v>766712.9474363257</v>
       </c>
       <c r="R3" t="n">
-        <v>7097940.749626156</v>
+        <v>7098084.141094536</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112003034</v>
+        <v>112000795</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>766712.9474363257</v>
+        <v>766897.9248347329</v>
       </c>
       <c r="R4" t="n">
-        <v>7098084.141094536</v>
+        <v>7097940.749626156</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112000891</v>
+        <v>112000857</v>
       </c>
       <c r="B5" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>766829.4773850774</v>
+        <v>766906.7664567139</v>
       </c>
       <c r="R5" t="n">
-        <v>7097974.697624703</v>
+        <v>7097935.756640848</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,12 +1120,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 38314-2020.xlsx
+++ b/artfynd/A 38314-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112000891</v>
+        <v>112000795</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>766829.4773850774</v>
+        <v>766897.9248347329</v>
       </c>
       <c r="R2" t="n">
-        <v>7097974.697624703</v>
+        <v>7097940.749626156</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,12 +781,12 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112000795</v>
+        <v>112000857</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>766897.9248347329</v>
+        <v>766906.7664567139</v>
       </c>
       <c r="R4" t="n">
-        <v>7097940.749626156</v>
+        <v>7097935.756640848</v>
       </c>
       <c r="S4" t="n">
         <v>100</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112000857</v>
+        <v>112000891</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>766906.7664567139</v>
+        <v>766829.4773850774</v>
       </c>
       <c r="R5" t="n">
-        <v>7097935.756640848</v>
+        <v>7097974.697624703</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,12 +1120,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 38314-2020.xlsx
+++ b/artfynd/A 38314-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112000795</v>
+        <v>112003034</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>766897.9248347329</v>
+        <v>766712.9474363257</v>
       </c>
       <c r="R2" t="n">
-        <v>7097940.749626156</v>
+        <v>7098084.141094536</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112003034</v>
+        <v>112000857</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>766712.9474363257</v>
+        <v>766906.7664567139</v>
       </c>
       <c r="R3" t="n">
-        <v>7098084.141094536</v>
+        <v>7097935.756640848</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112000857</v>
+        <v>112000891</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>766906.7664567139</v>
+        <v>766829.4773850774</v>
       </c>
       <c r="R4" t="n">
-        <v>7097935.756640848</v>
+        <v>7097974.697624703</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1007,22 +1007,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112000891</v>
+        <v>112000795</v>
       </c>
       <c r="B5" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>766829.4773850774</v>
+        <v>766897.9248347329</v>
       </c>
       <c r="R5" t="n">
-        <v>7097974.697624703</v>
+        <v>7097940.749626156</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,12 +1120,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 38314-2020.xlsx
+++ b/artfynd/A 38314-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112003034</v>
+        <v>112000857</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>766712.9474363257</v>
+        <v>766906.7664567139</v>
       </c>
       <c r="R2" t="n">
-        <v>7098084.141094536</v>
+        <v>7097935.756640848</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112000857</v>
+        <v>112003034</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>766906.7664567139</v>
+        <v>766712.9474363257</v>
       </c>
       <c r="R3" t="n">
-        <v>7097935.756640848</v>
+        <v>7098084.141094536</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112000891</v>
+        <v>112000795</v>
       </c>
       <c r="B4" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>766829.4773850774</v>
+        <v>766897.9248347329</v>
       </c>
       <c r="R4" t="n">
-        <v>7097974.697624703</v>
+        <v>7097940.749626156</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1007,22 +1007,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112000795</v>
+        <v>112000891</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56414</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>766897.9248347329</v>
+        <v>766829.4773850774</v>
       </c>
       <c r="R5" t="n">
-        <v>7097940.749626156</v>
+        <v>7097974.697624703</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,12 +1120,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 38314-2020.xlsx
+++ b/artfynd/A 38314-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112000857</v>
+        <v>112000891</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>766906.7664567139</v>
+        <v>766829</v>
       </c>
       <c r="R2" t="n">
-        <v>7097935.756640848</v>
+        <v>7097975</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112003034</v>
+        <v>112000795</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>766712.9474363257</v>
+        <v>766898</v>
       </c>
       <c r="R3" t="n">
-        <v>7098084.141094536</v>
+        <v>7097941</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112000795</v>
+        <v>112003034</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>766897.9248347329</v>
+        <v>766713</v>
       </c>
       <c r="R4" t="n">
-        <v>7097940.749626156</v>
+        <v>7098084</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112000891</v>
+        <v>112000857</v>
       </c>
       <c r="B5" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>766829.4773850774</v>
+        <v>766907</v>
       </c>
       <c r="R5" t="n">
-        <v>7097974.697624703</v>
+        <v>7097936</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,12 +1120,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 38314-2020.xlsx
+++ b/artfynd/A 38314-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112000891</v>
+        <v>112000795</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>89557</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>766829</v>
+        <v>766898</v>
       </c>
       <c r="R2" t="n">
-        <v>7097975</v>
+        <v>7097941</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112000795</v>
+        <v>112000857</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>77636</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>766898</v>
+        <v>766907</v>
       </c>
       <c r="R3" t="n">
-        <v>7097941</v>
+        <v>7097936</v>
       </c>
       <c r="S3" t="n">
         <v>100</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112003034</v>
+        <v>112000891</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>56446</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>766713</v>
+        <v>766829</v>
       </c>
       <c r="R4" t="n">
-        <v>7098084</v>
+        <v>7097975</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1007,22 +1007,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112000857</v>
+        <v>112003034</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>90800</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>766907</v>
+        <v>766713</v>
       </c>
       <c r="R5" t="n">
-        <v>7097936</v>
+        <v>7098084</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>

--- a/artfynd/A 38314-2020.xlsx
+++ b/artfynd/A 38314-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112000795</v>
+        <v>112000857</v>
       </c>
       <c r="B2" t="n">
-        <v>89557</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>766898</v>
+        <v>766907</v>
       </c>
       <c r="R2" t="n">
-        <v>7097941</v>
+        <v>7097936</v>
       </c>
       <c r="S2" t="n">
         <v>100</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112000857</v>
+        <v>112003034</v>
       </c>
       <c r="B3" t="n">
-        <v>77636</v>
+        <v>90814</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>766907</v>
+        <v>766713</v>
       </c>
       <c r="R3" t="n">
-        <v>7097936</v>
+        <v>7098084</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112003034</v>
+        <v>112000795</v>
       </c>
       <c r="B5" t="n">
-        <v>90800</v>
+        <v>89571</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>766713</v>
+        <v>766898</v>
       </c>
       <c r="R5" t="n">
-        <v>7098084</v>
+        <v>7097941</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 38314-2020.xlsx
+++ b/artfynd/A 38314-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112000857</v>
+        <v>112000891</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>56446</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>766907</v>
+        <v>766829</v>
       </c>
       <c r="R2" t="n">
-        <v>7097936</v>
+        <v>7097975</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Ulrika Karlsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112003034</v>
+        <v>112000795</v>
       </c>
       <c r="B3" t="n">
-        <v>90814</v>
+        <v>89571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>766713</v>
+        <v>766898</v>
       </c>
       <c r="R3" t="n">
-        <v>7098084</v>
+        <v>7097941</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112000891</v>
+        <v>112000857</v>
       </c>
       <c r="B4" t="n">
-        <v>56446</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>766829</v>
+        <v>766907</v>
       </c>
       <c r="R4" t="n">
-        <v>7097975</v>
+        <v>7097936</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1007,22 +1007,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Ulrika Karlsson</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112000795</v>
+        <v>112003034</v>
       </c>
       <c r="B5" t="n">
-        <v>89571</v>
+        <v>90814</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>766898</v>
+        <v>766713</v>
       </c>
       <c r="R5" t="n">
-        <v>7097941</v>
+        <v>7098084</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AD5" t="b">
